--- a/docs/planificacion-EPG3308-2023.xlsx
+++ b/docs/planificacion-EPG3308-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\computacion-estadistica-EPG3308\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3C49A-4439-4FFC-BA4A-EC0621D6BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CF66C-AFD9-44D5-81BB-B993D620DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="0" windowWidth="24180" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>Operador pipe |&gt;, %&gt;%. Paquete dplyr y principales funciones/acciones/verbos para la manipulación de dataframes: select, filter, arrange, summarize.</t>
   </si>
   <si>
-    <t>Fuentes de información txt, csv, xlsx, html, API, bbdd, otros. Paquetes readr, rvest, httr, haven</t>
-  </si>
-  <si>
     <t>stringr: carácteres y expresiones regulares. Forcast: factores. Lubridate: fechas y horas. Nulos, NA.</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Buenas prácticas en la visualización. Estadística descriptiva.</t>
+  </si>
+  <si>
+    <t>Fuentes de información txt, csv, xlsx, html, API, bbdd, otros. Paquetes readr, rvest, httr, haven, paquetes especificos (bcch)</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="2" t="s">
@@ -692,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>24</v>
@@ -726,7 +726,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>23</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>29</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>28</v>
@@ -801,7 +801,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>27</v>

--- a/docs/planificacion-EPG3308-2023.xlsx
+++ b/docs/planificacion-EPG3308-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\computacion-estadistica-EPG3308\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CF66C-AFD9-44D5-81BB-B993D620DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7207EACE-100F-4C27-9022-7B5D4E6666B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Generación de informes automatizados con Rmarkdown</t>
   </si>
@@ -134,18 +134,12 @@
     <t>Aplicaciones</t>
   </si>
   <si>
-    <t>Simulaciones</t>
-  </si>
-  <si>
     <t>Shiny</t>
   </si>
   <si>
     <t>Por definir/tentativo</t>
   </si>
   <si>
-    <t>Series de tiempo</t>
-  </si>
-  <si>
     <t>tópico</t>
   </si>
   <si>
@@ -173,13 +167,31 @@
     <t>Motivación: funciones. Paquete purrr, funciones map, map2, y pmap, walk. Paquete furrr.</t>
   </si>
   <si>
-    <t>Definiciones, error, sesgo, varianza. Introducción regresión linear, logística, árbol de decisión.</t>
-  </si>
-  <si>
     <t>Buenas prácticas en la visualización. Estadística descriptiva.</t>
   </si>
   <si>
     <t>Fuentes de información txt, csv, xlsx, html, API, bbdd, otros. Paquetes readr, rvest, httr, haven, paquetes especificos (bcch)</t>
+  </si>
+  <si>
+    <t>Árboles y Random Forest</t>
+  </si>
+  <si>
+    <t>Definiciones, error, sesgo, varianza. Métricas de valuación: RMSE, MAPE.</t>
+  </si>
+  <si>
+    <t>Definición ML, métricas evaluación KS, ROC, matriz de confusión. Árboles y RF.</t>
+  </si>
+  <si>
+    <t>Clase aplicada en ejemplo de créditos otorgados.</t>
+  </si>
+  <si>
+    <t>Comunicar 2</t>
+  </si>
+  <si>
+    <t>Shiny Aplicaciones</t>
+  </si>
+  <si>
+    <t>Aplicaciones en shiny, paquetes auxiliares, htmlwidgets v2</t>
   </si>
 </sst>
 </file>
@@ -203,12 +215,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -216,20 +222,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="8"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,60 +273,24 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,8 +304,32 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,18 +554,18 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -582,24 +576,24 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -611,10 +605,10 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -626,13 +620,13 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="18"/>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -644,16 +638,16 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -665,15 +659,15 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -688,12 +682,12 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -705,15 +699,15 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -725,30 +719,30 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <v>45049</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -760,15 +754,15 @@
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -780,15 +774,15 @@
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -800,103 +794,100 @@
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45077</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45084</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>45098</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>45105</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45084</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45091</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45098</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45105</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="16" t="s">
         <v>7</v>
       </c>
     </row>

--- a/docs/planificacion-EPG3308-2023.xlsx
+++ b/docs/planificacion-EPG3308-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\computacion-estadistica-EPG3308\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7207EACE-100F-4C27-9022-7B5D4E6666B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39BA923-2277-48AD-934D-1EAF9E70ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Aplicaciones</t>
   </si>
   <si>
-    <t>Shiny</t>
-  </si>
-  <si>
     <t>Por definir/tentativo</t>
   </si>
   <si>
@@ -191,7 +188,10 @@
     <t>Shiny Aplicaciones</t>
   </si>
   <si>
-    <t>Aplicaciones en shiny, paquetes auxiliares, htmlwidgets v2</t>
+    <t>https://mastering-shiny.org/</t>
+  </si>
+  <si>
+    <t>Aplicaciones en shiny, interfaz de usuario, servidor, paquetes auxiliares, htmlwidgets v2</t>
   </si>
 </sst>
 </file>
@@ -202,7 +202,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -237,6 +237,13 @@
       <u/>
       <sz val="8"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -275,7 +282,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,6 +339,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +564,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,16 +587,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -621,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -639,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="2" t="s">
@@ -660,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
@@ -700,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>24</v>
@@ -720,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>23</v>
@@ -755,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
@@ -775,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>28</v>
@@ -795,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>27</v>
@@ -812,10 +822,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -830,10 +840,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -845,15 +855,17 @@
         <v>45091</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -881,11 +893,9 @@
         <v>30</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="19"/>
       <c r="G17" s="16" t="s">
         <v>7</v>
